--- a/HCIDaten.xlsx
+++ b/HCIDaten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33b8813b05832e75/Dokumente/GitHub/HCIArmSwinger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_03A5CAEC857811A09CD74BA2F6CB7102B99E101D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E754FE82-3ABD-49D8-B723-CB4A040BC39F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_03A5CAEC857811A09CD74BA2F6CB7102B99E101D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{643A8B57-5F3B-4665-BC43-7D788065D95C}"/>
   <bookViews>
-    <workbookView xWindow="-51720" yWindow="-5370" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51720" yWindow="-5370" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collisions" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
   </sheetPr>
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1511,13 +1511,13 @@
   </sheetPr>
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>0</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>0</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>0</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>0</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>0</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>0</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>0</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16.2" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>0</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -2141,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" ref="A15:I15" si="13">SUM(A2:A12)</f>
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f>A15/9</f>
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="P17" s="3">
         <v>1</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="P18" s="3">
         <v>1</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="P19" s="3">
         <v>1</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>13</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>0</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>0</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>0</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>0</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>0</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>0</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>0</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>0</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <f>SUM(A22:A30)</f>
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <f>A33/10</f>
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>13</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>0</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>35</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>0</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>0</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>0</v>
       </c>
@@ -3298,7 +3298,7 @@
       <c r="L43" s="27"/>
       <c r="M43" s="27"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>0</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>0</v>
       </c>
@@ -3372,7 +3372,7 @@
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>0</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>0</v>
       </c>
@@ -3446,7 +3446,7 @@
       <c r="L47" s="27"/>
       <c r="M47" s="27"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>0</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="25"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3499,7 +3499,7 @@
       <c r="L49" s="27"/>
       <c r="M49" s="27"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -3516,7 +3516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -3531,7 +3531,7 @@
       <c r="L51" s="27"/>
       <c r="M51" s="27"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="29">
         <f t="shared" ref="A52:J52" si="39">SUM(A38:A47)</f>
         <v>0</v>
@@ -3576,7 +3576,7 @@
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="29">
         <f t="shared" ref="A53:J53" si="40">A52/10</f>
         <v>0</v>
@@ -3634,11 +3634,13 @@
   </sheetPr>
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -3893,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -3937,7 +3939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -4066,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -4165,7 +4167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM(A2:A13)</f>
         <v>0</v>
@@ -4210,7 +4212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>A14/9</f>
         <v>0</v>
@@ -4271,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="M17" s="3">
         <v>1</v>
       </c>
@@ -4284,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="M18" s="3">
         <v>1</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="M19" s="3">
         <v>1</v>
       </c>
@@ -4310,7 +4312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="M20" s="3">
         <v>1</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -4591,7 +4593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>0</v>
       </c>
@@ -4636,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>0</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>0</v>
       </c>
@@ -4771,7 +4773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>0</v>
       </c>
@@ -4859,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
@@ -4885,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f>SUM(A23:A33)</f>
         <v>0</v>
@@ -4933,7 +4935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
@@ -4948,7 +4950,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f t="shared" ref="A36:H36" si="40">A34/10</f>
         <v>0</v>
@@ -4985,17 +4987,11 @@
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N38" s="5">
-        <f t="shared" ref="N38:O38" si="41">G38</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="5">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>13</v>
       </c>
@@ -5028,7 +5024,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <v>0</v>
       </c>
@@ -5048,7 +5044,7 @@
         <v>90.37</v>
       </c>
       <c r="G40" s="37">
-        <f t="shared" ref="G40:G51" si="42">SUM(A40:F40)</f>
+        <f t="shared" ref="G40:G51" si="41">SUM(A40:F40)</f>
         <v>316.85000000000002</v>
       </c>
       <c r="H40" s="37">
@@ -5078,7 +5074,7 @@
         <v>20.84</v>
       </c>
       <c r="G41" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>161.09</v>
       </c>
       <c r="H41" s="37">
@@ -5090,7 +5086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0</v>
       </c>
@@ -5110,7 +5106,7 @@
         <v>5.3811489999999997</v>
       </c>
       <c r="G42" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>219.37006699999998</v>
       </c>
       <c r="H42" s="3">
@@ -5120,7 +5116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <v>0</v>
       </c>
@@ -5140,7 +5136,7 @@
         <v>28.28</v>
       </c>
       <c r="G43" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>198.42</v>
       </c>
       <c r="H43" s="37">
@@ -5152,7 +5148,7 @@
       <c r="J43" s="36"/>
       <c r="K43" s="11"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="36">
         <v>0</v>
       </c>
@@ -5172,7 +5168,7 @@
         <v>27.8</v>
       </c>
       <c r="G44" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>252.32000000000002</v>
       </c>
       <c r="H44" s="37">
@@ -5184,7 +5180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="36">
         <v>0</v>
       </c>
@@ -5204,7 +5200,7 @@
         <v>26.18</v>
       </c>
       <c r="G45" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>230.95</v>
       </c>
       <c r="H45" s="36">
@@ -5216,7 +5212,7 @@
       <c r="J45" s="36"/>
       <c r="K45" s="11"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <v>0</v>
       </c>
@@ -5236,7 +5232,7 @@
         <v>22.9</v>
       </c>
       <c r="G46" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>155.58000000000001</v>
       </c>
       <c r="H46" s="36">
@@ -5248,7 +5244,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="36">
         <v>0</v>
       </c>
@@ -5268,7 +5264,7 @@
         <v>53.03</v>
       </c>
       <c r="G47" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>116.77</v>
       </c>
       <c r="H47" s="36">
@@ -5280,7 +5276,7 @@
       <c r="J47" s="36"/>
       <c r="K47" s="11"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="36">
         <v>0</v>
       </c>
@@ -5300,7 +5296,7 @@
         <v>30.24</v>
       </c>
       <c r="G48" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>206.65000000000003</v>
       </c>
       <c r="H48" s="37">
@@ -5312,7 +5308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="36">
         <v>0</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>25.84</v>
       </c>
       <c r="G49" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>145.69999999999999</v>
       </c>
       <c r="H49" s="36">
@@ -5344,7 +5340,7 @@
       <c r="J49" s="36"/>
       <c r="K49" s="11"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <v>0</v>
       </c>
@@ -5364,7 +5360,7 @@
         <v>46.31</v>
       </c>
       <c r="G50" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>324.68</v>
       </c>
       <c r="H50" s="36">
@@ -5376,7 +5372,7 @@
       <c r="J50" s="38"/>
       <c r="K50" s="11"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38"/>
@@ -5384,7 +5380,7 @@
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
       <c r="G51" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H51" s="38"/>
@@ -5392,7 +5388,7 @@
       <c r="J51" s="38"/>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -5405,7 +5401,7 @@
       <c r="J52" s="38"/>
       <c r="K52" s="11"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="36" t="s">
         <v>49</v>
       </c>
@@ -5420,37 +5416,37 @@
       <c r="J53" s="38"/>
       <c r="K53" s="11"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
-        <f t="shared" ref="A54:H54" si="43">SUM(A40:A50)</f>
+        <f t="shared" ref="A54:H54" si="42">SUM(A40:A50)</f>
         <v>0</v>
       </c>
       <c r="B54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>668.50749999999994</v>
       </c>
       <c r="C54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>441.18072599999994</v>
       </c>
       <c r="D54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>546.1203119999999</v>
       </c>
       <c r="E54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>295.40037999999998</v>
       </c>
       <c r="F54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>377.17114900000001</v>
       </c>
       <c r="G54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2328.3800670000001</v>
       </c>
       <c r="H54" s="38">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="I54" s="38"/>
@@ -5474,35 +5470,35 @@
     </row>
     <row r="56" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
-        <f t="shared" ref="A56:H56" si="44">A54/11</f>
+        <f t="shared" ref="A56:H56" si="43">A54/11</f>
         <v>0</v>
       </c>
       <c r="B56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>60.773409090909084</v>
       </c>
       <c r="C56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>40.107338727272719</v>
       </c>
       <c r="D56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>49.647301090909082</v>
       </c>
       <c r="E56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>26.854579999999999</v>
       </c>
       <c r="F56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>34.288286272727277</v>
       </c>
       <c r="G56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>211.67091518181817</v>
       </c>
       <c r="H56" s="38">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>1.2727272727272727</v>
       </c>
       <c r="I56" s="38"/>
@@ -5566,7 +5562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -5605,7 +5601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -5644,7 +5640,7 @@
         <v>77.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -5683,7 +5679,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -5761,7 +5757,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -5800,7 +5796,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -5839,7 +5835,7 @@
         <v>72.5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -5878,7 +5874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -5917,7 +5913,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -5959,7 +5955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -6001,7 +5997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -6013,7 +6009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" ref="A14:J14" si="2">SUM(A2:A13)</f>
         <v>38</v>
@@ -6062,7 +6058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -6074,7 +6070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" ref="A16:J16" si="3">A14/11</f>
         <v>3.4545454545454546</v>
@@ -6123,7 +6119,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="N17" s="43"/>
       <c r="O17" s="3">
         <v>1</v>
@@ -6133,7 +6129,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O18" s="3">
         <v>1</v>
       </c>
@@ -6142,7 +6138,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O19" s="3">
         <v>1</v>
       </c>
@@ -6151,7 +6147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="O20" s="3">
         <v>1</v>
       </c>
@@ -6199,7 +6195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>4</v>
       </c>
@@ -6238,7 +6234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>2</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -6319,7 +6315,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -6358,7 +6354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2</v>
       </c>
@@ -6397,7 +6393,7 @@
         <v>92.5</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -6436,7 +6432,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>2</v>
       </c>
@@ -6475,7 +6471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -6514,7 +6510,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3</v>
       </c>
@@ -6553,7 +6549,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -6592,7 +6588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>2</v>
       </c>
@@ -6631,7 +6627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
@@ -6652,7 +6648,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f t="shared" ref="A34:J34" si="5">SUM(A22:A33)</f>
         <v>23</v>
@@ -6701,7 +6697,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
@@ -6715,7 +6711,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f t="shared" ref="A36:J36" si="6">A34/11</f>
         <v>2.0909090909090908</v>
@@ -6789,7 +6785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>3</v>
       </c>
@@ -6821,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>2</v>
       </c>
@@ -6853,7 +6849,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -6885,7 +6881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>3</v>
       </c>
@@ -6917,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>2</v>
       </c>
@@ -6949,7 +6945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>3</v>
       </c>
@@ -6981,7 +6977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>2</v>
       </c>
@@ -7013,7 +7009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>3</v>
       </c>
@@ -7045,7 +7041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>1</v>
       </c>
@@ -7077,7 +7073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>3</v>
       </c>
@@ -7109,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="26">
         <v>3</v>
       </c>
@@ -7141,7 +7137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
@@ -7153,7 +7149,7 @@
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="26" t="s">
         <v>49</v>
       </c>
@@ -7167,7 +7163,7 @@
       <c r="I53" s="27"/>
       <c r="J53" s="27"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="27">
         <f t="shared" ref="A54:J54" si="7">SUM(A41:A53)</f>
         <v>29</v>
@@ -8529,7 +8525,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -8598,7 +8594,7 @@
         <v>29.92</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -8667,7 +8663,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -8736,7 +8732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -8805,7 +8801,7 @@
         <v>48.620000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -8874,7 +8870,7 @@
         <v>41.14</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -8943,7 +8939,7 @@
         <v>18.700000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -9012,7 +9008,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -9081,7 +9077,7 @@
         <v>52.36</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -9150,7 +9146,7 @@
         <v>37.400000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -9222,7 +9218,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -9294,7 +9290,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -9306,7 +9302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" ref="A14:P14" si="5">SUM(A1:A13)</f>
         <v>7</v>
@@ -9379,7 +9375,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -9391,7 +9387,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" ref="A16:P16" si="6">A14/11</f>
         <v>0.63636363636363635</v>
@@ -9464,7 +9460,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="W17" s="3">
         <v>1</v>
       </c>
@@ -9473,7 +9469,7 @@
         <v>100.98</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="W18" s="3">
         <v>1</v>
       </c>
@@ -9482,7 +9478,7 @@
         <v>115.94000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="W19" s="3">
         <v>1</v>
       </c>
@@ -9548,7 +9544,7 @@
         <v>164.56</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0</v>
       </c>
@@ -9617,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -9686,7 +9682,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>0</v>
       </c>
@@ -9758,7 +9754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>3</v>
       </c>
@@ -9827,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>3</v>
       </c>
@@ -9896,7 +9892,7 @@
         <v>18.700000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2</v>
       </c>
@@ -9965,7 +9961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>1</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -10103,7 +10099,7 @@
         <v>14.96</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>0</v>
       </c>
@@ -10172,7 +10168,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2</v>
       </c>
@@ -10241,7 +10237,7 @@
         <v>11.22</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>3</v>
       </c>
@@ -10313,7 +10309,7 @@
         <v>86.02000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>49</v>
       </c>
@@ -10340,7 +10336,7 @@
         <v>115.94000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <f t="shared" ref="A33:P33" si="11">SUM(A20:A32)</f>
         <v>18</v>
@@ -10413,7 +10409,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
@@ -10440,7 +10436,7 @@
         <v>7.48</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <f t="shared" ref="A35:P35" si="12">A33/10</f>
         <v>1.8</v>
@@ -10556,7 +10552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>0</v>
       </c>
@@ -10618,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>2</v>
       </c>
@@ -10680,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>0</v>
       </c>
@@ -10742,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>0</v>
       </c>
@@ -10804,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>1</v>
       </c>
@@ -10866,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>1</v>
       </c>
@@ -10928,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>0</v>
       </c>
@@ -10990,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>1</v>
       </c>
@@ -11052,7 +11048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>2</v>
       </c>
@@ -11114,7 +11110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>0</v>
       </c>
@@ -11176,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>0</v>
       </c>
@@ -11238,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -11256,7 +11252,7 @@
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
@@ -11276,7 +11272,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
         <f t="shared" ref="A52:P52" si="16">SUM(A38:A51)</f>
         <v>7</v>
@@ -11342,7 +11338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>50</v>
       </c>
@@ -11362,7 +11358,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
         <f t="shared" ref="A54:P54" si="17">A52/11</f>
         <v>0.63636363636363635</v>
@@ -11482,7 +11478,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>11</v>
       </c>
@@ -11524,7 +11520,7 @@
         <v>8.545454545454545</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -11566,7 +11562,7 @@
         <v>10.727272727272727</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -11608,7 +11604,7 @@
         <v>7.7272727272727275</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -11650,7 +11646,7 @@
         <v>15.181818181818182</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -11692,7 +11688,7 @@
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -11734,7 +11730,7 @@
         <v>8.8181818181818183</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -11761,7 +11757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -11788,7 +11784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -11815,7 +11811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>3</v>
       </c>
@@ -11845,7 +11841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -11875,7 +11871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -11887,7 +11883,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" ref="A14:F14" si="2">SUM(A2:A12)</f>
         <v>61</v>
@@ -11920,7 +11916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -11932,7 +11928,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" ref="A16:F16" si="3">A14/11</f>
         <v>5.5454545454545459</v>
@@ -11965,7 +11961,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="K17" s="3">
         <v>1</v>
       </c>
@@ -11974,7 +11970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="K18" s="3">
         <v>1</v>
       </c>
@@ -11983,7 +11979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="K19" s="3">
         <v>1</v>
       </c>
@@ -11992,7 +11988,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="K20" s="3">
         <v>1</v>
       </c>
@@ -12028,7 +12024,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>5</v>
       </c>
@@ -12055,7 +12051,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>4</v>
       </c>
@@ -12085,7 +12081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>5</v>
       </c>
@@ -12112,7 +12108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>15</v>
       </c>
@@ -12139,7 +12135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>6</v>
       </c>
@@ -12166,7 +12162,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -12193,7 +12189,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>5</v>
       </c>
@@ -12220,7 +12216,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>20</v>
       </c>
@@ -12247,7 +12243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>3</v>
       </c>
@@ -12274,7 +12270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>14</v>
       </c>
@@ -12301,7 +12297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>6</v>
       </c>
@@ -12328,7 +12324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
@@ -12345,7 +12341,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f t="shared" ref="A34:F34" si="5">SUM(A22:A33)</f>
         <v>95</v>
@@ -12378,7 +12374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
@@ -12388,7 +12384,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f t="shared" ref="A36:F36" si="6">A34/11</f>
         <v>8.6363636363636367</v>
@@ -12434,7 +12430,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -12454,7 +12450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>13</v>
       </c>
@@ -12474,7 +12470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>5</v>
       </c>
@@ -12494,7 +12490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>2</v>
       </c>
@@ -12514,7 +12510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>16</v>
       </c>
@@ -12534,7 +12530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>7</v>
       </c>
@@ -12554,7 +12550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>15</v>
       </c>
@@ -12574,7 +12570,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>10</v>
       </c>
@@ -12594,7 +12590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>16</v>
       </c>
@@ -12614,7 +12610,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>4</v>
       </c>
@@ -12634,7 +12630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>3</v>
       </c>
@@ -12654,7 +12650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
@@ -12662,7 +12658,7 @@
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>49</v>
       </c>
@@ -12672,7 +12668,7 @@
       <c r="E52" s="27"/>
       <c r="F52" s="27"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <f t="shared" ref="A53:F53" si="7">SUM(A40:A52)</f>
         <v>94</v>
@@ -12698,7 +12694,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>50</v>
       </c>
@@ -12761,7 +12757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>5</v>
       </c>
@@ -12773,7 +12769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -12785,7 +12781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -12797,7 +12793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -12809,7 +12805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -12821,7 +12817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -12833,7 +12829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -12845,7 +12841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -12857,7 +12853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -12869,7 +12865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -12884,7 +12880,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
@@ -12898,7 +12894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -12910,7 +12906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f>SUM(A2:A13)</f>
         <v>47</v>
@@ -12923,7 +12919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -12935,7 +12931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f>A14/11</f>
         <v>4.2727272727272725</v>
@@ -12948,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E17" s="3">
         <v>1</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E18" s="3">
         <v>1</v>
       </c>
@@ -12966,7 +12962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E19" s="3">
         <v>1</v>
       </c>
@@ -12975,7 +12971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="E20" s="3">
         <v>1</v>
       </c>
@@ -12998,7 +12994,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>5</v>
       </c>
@@ -13015,7 +13011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -13032,7 +13028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -13046,7 +13042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -13060,7 +13056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>1</v>
       </c>
@@ -13073,7 +13069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>2</v>
       </c>
@@ -13087,7 +13083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>3</v>
       </c>
@@ -13101,7 +13097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>1</v>
       </c>
@@ -13115,7 +13111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>4</v>
       </c>
@@ -13129,7 +13125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>1</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2</v>
       </c>
@@ -13157,7 +13153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>49</v>
       </c>
@@ -13171,7 +13167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f>SUM(A22:A31)</f>
         <v>25</v>
@@ -13186,14 +13182,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f>A34/11</f>
         <v>2.2727272727272729</v>
@@ -13204,76 +13200,76 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="27">
         <f>SUM(A40:A51)</f>
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>50</v>
       </c>
